--- a/Resources/2005/Basic_Percentile_2005.xlsx
+++ b/Resources/2005/Basic_Percentile_2005.xlsx
@@ -1459,7 +1459,7 @@
     <t>Dwyane Wade</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Andrei Kirilenko</t>
@@ -1537,7 +1537,7 @@
     <t>Lamar Odom</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Baron Davis</t>
@@ -1606,16 +1606,16 @@
     <t>Josh Howard</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
-  </si>
-  <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Allen Iverson</t>
+  </si>
+  <si>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Caron Butler</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Dwight Howard</t>
@@ -1669,7 +1669,7 @@
     <t>Tyson Chandler</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Ricky Davis</t>
@@ -1753,16 +1753,16 @@
     <t>Brian Cardinal</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Desmond Mason</t>
   </si>
   <si>
-    <t>Yao Ming*</t>
-  </si>
-  <si>
-    <t>Gary Payton*</t>
+    <t>Yao Ming</t>
+  </si>
+  <si>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Morris Peterson</t>
@@ -1849,7 +1849,7 @@
     <t>Dan Dickau</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Jamaal Magloire</t>
@@ -2002,7 +2002,7 @@
     <t>Jeff Foster</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Rick Brunson</t>
@@ -2014,7 +2014,7 @@
     <t>Antonio Davis</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Jim Jackson</t>
